--- a/src/main/resources/export/Tarifs-Client-Vente.xlsx
+++ b/src/main/resources/export/Tarifs-Client-Vente.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF713F0D-1541-4767-AA9E-B6269346B982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BACF192-CF4F-484C-B8F7-A50307D3BC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Liste de Tarifs" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>accountPricing_LoadingType</t>
   </si>
@@ -42,13 +43,61 @@
   </si>
   <si>
     <t>accountPricing_Company</t>
+  </si>
+  <si>
+    <t>Nom du champ</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Valeurs possibles</t>
+  </si>
+  <si>
+    <t>Obligatoire</t>
+  </si>
+  <si>
+    <t>Type Chargement</t>
+  </si>
+  <si>
+    <t>Alphanumérique</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Type trajet</t>
+  </si>
+  <si>
+    <t>Catégorie de Véhicle</t>
+  </si>
+  <si>
+    <t>Type Remorque</t>
+  </si>
+  <si>
+    <t>Trajet</t>
+  </si>
+  <si>
+    <t>Numérique</t>
+  </si>
+  <si>
+    <t>TVA</t>
+  </si>
+  <si>
+    <t>Prix Vente HT</t>
+  </si>
+  <si>
+    <t>Prix Vente TTC</t>
+  </si>
+  <si>
+    <t>Société</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +124,15 @@
       <name val="Times New Roman"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +143,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor rgb="FF1DBBD9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -117,11 +179,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,22 +527,22 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -509,11 +572,172 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526CB7B1-270E-4A9F-AB1B-BCF1E6B41908}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>